--- a/src/main/webapp/res/file/admin/과목졸업요건.xlsx
+++ b/src/main/webapp/res/file/admin/과목졸업요건.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\study\[PROJECT]\database capstone design\문서\[참고 자료]\양식\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\study\[PROJECT]\database capstone design\문서\[참고 자료]\양식\DB 저장\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E04EAC-A33B-4842-B39A-EBEF893B3028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B9922C-39EB-4185-ACE3-E77A9E624908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" activeTab="1" xr2:uid="{F7583E13-4D1E-4254-8A84-D4DD6717B4BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="45">
   <si>
     <t>적용년도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,31 +133,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC00048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트용2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트용3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신문방송학과</t>
+    <t>소프트웨어공학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,7 +145,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공통</t>
+    <t>전공기초과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF00011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이산수학, 대학수학, 정보사회론, 컴퓨터활용 중 2과목 이상 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE00022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE00044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회봉사I, 해외봉사, 농촌봉사, CUAC서비스러닝 중 택 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE00046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC00012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC00014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC00013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC00007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC00016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC00015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48A6700-F250-428A-B808-13B9CCB1BC7F}">
   <dimension ref="B1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -798,10 +842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3FF768-8C73-456D-AD7F-1631566D6506}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -855,68 +899,468 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="3">
-        <v>2012</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3"/>
+      <c r="G23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
